--- a/PensionModule/DataFiles/Sample_Sheets/SA_op_Bal_Sample.xlsx
+++ b/PensionModule/DataFiles/Sample_Sheets/SA_op_Bal_Sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID</t>
   </si>
@@ -26,13 +26,24 @@
   <si>
     <t>emp_no</t>
   </si>
+  <si>
+    <t>name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,30 +375,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
